--- a/Price_link_list/Cсылки Проектор Oct-21----14--21-30.xlsx
+++ b/Price_link_list/Cсылки Проектор Oct-21----14--21-30.xlsx
@@ -5136,7 +5136,7 @@
   <dimension ref="A1:E773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
